--- a/servers/data/partner_question.xlsx
+++ b/servers/data/partner_question.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jiwan/Documents/GitHub/DNCE/client/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jiwan/Documents/GitHub/DNCE/servers/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 이 파트너를 믿을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 파트너는 위험한 것을 선호한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,7 +70,10 @@
     <t>이번에는 응답으로 ‘5’를 입력해 주세요.</t>
   </si>
   <si>
-    <t>index</t>
+    <t>나는 이 파트너에게 믿음이 간다.</t>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +445,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -472,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
